--- a/patient_data/patient_61.xlsx
+++ b/patient_data/patient_61.xlsx
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1362,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2174,19 +2174,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2251,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
